--- a/rtss-pre1917/src/main/resources/immigration.xlsx
+++ b/rtss-pre1917/src/main/resources/immigration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFAE686-413A-40F2-81EE-B032846054CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68E5D9-5D38-454A-B955-6BBD796C702C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{F5C0FC2C-9C7B-4145-981E-7BD1765E4EE3}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>NBER, "International Migrations", ред. W. Wilcox, Volume I - Statistics, NY 1929, стр.  794-795, 798-803</t>
   </si>
   <si>
-    <t>Синим цветом помечена исправленная опечатка в ЦСК, Статистический ежегодник России, стр. II/31</t>
-  </si>
-  <si>
     <t>Движение иностранцев через границы России по паспортам, по странам.</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>всего:</t>
+  </si>
+  <si>
+    <t>Синим цветом помечена исправленная опечатка в ЦСК, Статистический ежегодник России 1914, стр. II/31</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE7EB44-DA37-426E-8733-CEB32776A88C}">
   <dimension ref="A1:BU97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O29" s="1"/>
     </row>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31" s="6"/>
       <c r="O31" s="1"/>
@@ -1451,53 +1451,53 @@
         <v>8</v>
       </c>
       <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
         <v>23</v>
       </c>
-      <c r="K33" t="s">
+      <c r="N33" t="s">
         <v>24</v>
-      </c>
-      <c r="N33" t="s">
-        <v>25</v>
       </c>
       <c r="O33" s="1"/>
       <c r="Q33" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" t="s">
         <v>26</v>
       </c>
-      <c r="T33" t="s">
+      <c r="W33" t="s">
         <v>27</v>
       </c>
-      <c r="W33" t="s">
+      <c r="Z33" t="s">
         <v>28</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AC33" t="s">
         <v>29</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>30</v>
       </c>
       <c r="AF33" t="s">
         <v>9</v>
       </c>
       <c r="AI33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL33" t="s">
         <v>31</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AO33" t="s">
         <v>32</v>
       </c>
-      <c r="AO33" t="s">
+      <c r="AR33" t="s">
         <v>33</v>
       </c>
-      <c r="AR33" t="s">
+      <c r="AU33" t="s">
         <v>34</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AX33" t="s">
         <v>35</v>
       </c>
-      <c r="AX33" t="s">
+      <c r="BA33" t="s">
         <v>36</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>37</v>
       </c>
       <c r="BD33" t="s">
         <v>12</v>
@@ -1506,16 +1506,16 @@
         <v>10</v>
       </c>
       <c r="BJ33" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM33" t="s">
         <v>38</v>
       </c>
-      <c r="BM33" t="s">
+      <c r="BP33" t="s">
         <v>39</v>
       </c>
-      <c r="BP33" t="s">
+      <c r="BS33" t="s">
         <v>40</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:73" x14ac:dyDescent="0.25">
@@ -6767,7 +6767,7 @@
     </row>
     <row r="57" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1"/>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="60" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" s="1">
         <v>205805</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="64" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1">
         <v>20477</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1">
         <v>16981</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="1">
         <v>12542</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67" s="1">
         <v>10431</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B68" s="1">
         <v>9020</v>
@@ -6880,7 +6880,7 @@
     </row>
     <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="1">
         <v>8369</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1">
         <v>8006</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" s="1">
         <v>6426</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1">
         <v>5897</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" s="1">
         <v>5622</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" s="1">
         <v>3063</v>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" s="1">
         <v>1009</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="77" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77">
         <v>542</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="78" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78">
         <v>309</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="80" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80" s="1">
         <v>-5491</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="81" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" s="1">
         <v>-5538</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="82" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" s="1">
         <v>24087</v>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="83" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83" s="1">
         <f>SUM(B59:B81)</f>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9445,15 +9445,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/rtss-pre1917/src/main/resources/immigration.xlsx
+++ b/rtss-pre1917/src/main/resources/immigration.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68E5D9-5D38-454A-B955-6BBD796C702C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D4D1C-7172-49D2-8755-9733FCA2CD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{F5C0FC2C-9C7B-4145-981E-7BD1765E4EE3}"/>
+    <workbookView xWindow="15765" yWindow="2415" windowWidth="25365" windowHeight="19110" activeTab="1" xr2:uid="{F5C0FC2C-9C7B-4145-981E-7BD1765E4EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
     <sheet name="note-2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="51">
   <si>
     <t>год</t>
   </si>
@@ -164,6 +165,27 @@
   </si>
   <si>
     <t>Синим цветом помечена исправленная опечатка в ЦСК, Статистический ежегодник России 1914, стр. II/31</t>
+  </si>
+  <si>
+    <t>Австрия лб</t>
+  </si>
+  <si>
+    <t>Германия лб</t>
+  </si>
+  <si>
+    <t>Румыния лб</t>
+  </si>
+  <si>
+    <t>Персия лб</t>
+  </si>
+  <si>
+    <t>Китай лб</t>
+  </si>
+  <si>
+    <t>др страны</t>
+  </si>
+  <si>
+    <t>др страны лб</t>
   </si>
 </sst>
 </file>
@@ -549,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE7EB44-DA37-426E-8733-CEB32776A88C}">
   <dimension ref="A1:BU97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="AW19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:BU55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7100,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7873D5-0E5D-4C85-A503-F7801E4CF69A}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8179,7 +8201,7 @@
         <v>226920</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" ref="H36:H53" si="9">I36-J36</f>
+        <f t="shared" ref="H36:H54" si="9">I36-J36</f>
         <v>265</v>
       </c>
       <c r="I36" s="1">
@@ -8189,7 +8211,7 @@
         <v>2784</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" ref="K36:K53" si="10">L36-M36</f>
+        <f t="shared" ref="K36:K54" si="10">L36-M36</f>
         <v>4198</v>
       </c>
       <c r="L36" s="1">
@@ -8199,7 +8221,7 @@
         <v>30177</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" ref="N36:N53" si="11">O36-P36</f>
+        <f t="shared" ref="N36:N54" si="11">O36-P36</f>
         <v>-242</v>
       </c>
       <c r="O36" s="1">
@@ -8209,7 +8231,7 @@
         <v>1640</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" ref="Q36:Q53" si="12">R36-S36</f>
+        <f t="shared" ref="Q36:Q54" si="12">R36-S36</f>
         <v>259</v>
       </c>
       <c r="R36" s="1">
@@ -9365,7 +9387,8 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>152</v>
       </c>
       <c r="I54" s="1">
         <v>984</v>
@@ -9374,7 +9397,8 @@
         <v>832</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>11648</v>
       </c>
       <c r="L54" s="1">
         <v>79919</v>
@@ -9383,7 +9407,8 @@
         <v>68271</v>
       </c>
       <c r="N54" s="1">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>9949</v>
       </c>
       <c r="O54" s="1">
         <v>41034</v>
@@ -9392,7 +9417,8 @@
         <v>31085</v>
       </c>
       <c r="Q54" s="1">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>874</v>
       </c>
       <c r="R54" s="1">
         <v>5330</v>
@@ -9419,25 +9445,25 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5">
         <f>SUM(H35:H54)</f>
-        <v>6814</v>
+        <v>6966</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5">
         <f>SUM(K35:K54)</f>
-        <v>139602</v>
+        <v>151250</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5">
         <f>SUM(N35:N54)</f>
-        <v>77462</v>
+        <v>87411</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5">
         <f>SUM(Q35:Q54)</f>
-        <v>10250</v>
+        <v>11124</v>
       </c>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
@@ -9445,7 +9471,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K33:M33"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="Q33:S33"/>
     <mergeCell ref="H7:J7"/>
@@ -9454,8 +9479,2071 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B60D45-40A7-4AEF-8152-6E6E2D19E14F}">
+  <dimension ref="A1:AE21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1896</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25302</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2161</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6592</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2617</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1268</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1842</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1018</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-978</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-902</v>
+      </c>
+      <c r="L2" s="1">
+        <v>251</v>
+      </c>
+      <c r="M2" s="1">
+        <v>426</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1415</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-110</v>
+      </c>
+      <c r="P2" s="1">
+        <v>354</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>174</v>
+      </c>
+      <c r="R2" s="1">
+        <v>166</v>
+      </c>
+      <c r="S2" s="1">
+        <v>331</v>
+      </c>
+      <c r="T2" s="1">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-23</v>
+      </c>
+      <c r="V2" s="1">
+        <v>129</v>
+      </c>
+      <c r="W2" s="1">
+        <v>62</v>
+      </c>
+      <c r="X2" s="1">
+        <v>-44</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>5503</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>-1186</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>4771</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>-2081</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1897</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25671</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3094</v>
+      </c>
+      <c r="D3" s="1">
+        <v>265</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4198</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-242</v>
+      </c>
+      <c r="G3" s="1">
+        <v>259</v>
+      </c>
+      <c r="H3" s="1">
+        <v>896</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6059</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1013</v>
+      </c>
+      <c r="L3" s="1">
+        <v>515</v>
+      </c>
+      <c r="M3" s="1">
+        <v>524</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1418</v>
+      </c>
+      <c r="O3" s="1">
+        <v>90</v>
+      </c>
+      <c r="P3" s="1">
+        <v>484</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>190</v>
+      </c>
+      <c r="S3" s="1">
+        <v>308</v>
+      </c>
+      <c r="T3" s="1">
+        <v>290</v>
+      </c>
+      <c r="U3" s="1">
+        <v>137</v>
+      </c>
+      <c r="V3" s="1">
+        <v>75</v>
+      </c>
+      <c r="W3" s="1">
+        <v>117</v>
+      </c>
+      <c r="X3" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-40</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>22426</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1281</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>4740</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>1898</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13569</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5651</v>
+      </c>
+      <c r="D4" s="1">
+        <v>426</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10761</v>
+      </c>
+      <c r="F4" s="1">
+        <v>371</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1036</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6111</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8828</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2061</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2034</v>
+      </c>
+      <c r="L4" s="1">
+        <v>415</v>
+      </c>
+      <c r="M4" s="1">
+        <v>383</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1838</v>
+      </c>
+      <c r="O4" s="1">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1">
+        <v>636</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>161</v>
+      </c>
+      <c r="R4" s="1">
+        <v>320</v>
+      </c>
+      <c r="S4" s="1">
+        <v>424</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-171</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1175</v>
+      </c>
+      <c r="V4" s="1">
+        <v>223</v>
+      </c>
+      <c r="W4" s="1">
+        <v>189</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-38</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>15851</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>679</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>9956</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>-14</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1899</v>
+      </c>
+      <c r="B5" s="1">
+        <v>35639</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4391</v>
+      </c>
+      <c r="D5" s="1">
+        <v>251</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8397</v>
+      </c>
+      <c r="F5" s="1">
+        <v>516</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3887</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4298</v>
+      </c>
+      <c r="J5" s="1">
+        <v>506</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1122</v>
+      </c>
+      <c r="L5" s="1">
+        <v>554</v>
+      </c>
+      <c r="M5" s="1">
+        <v>202</v>
+      </c>
+      <c r="N5" s="1">
+        <v>277</v>
+      </c>
+      <c r="O5" s="1">
+        <v>131</v>
+      </c>
+      <c r="P5" s="1">
+        <v>274</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>183</v>
+      </c>
+      <c r="R5" s="1">
+        <v>159</v>
+      </c>
+      <c r="S5" s="1">
+        <v>18</v>
+      </c>
+      <c r="T5" s="1">
+        <v>159</v>
+      </c>
+      <c r="U5" s="1">
+        <v>791</v>
+      </c>
+      <c r="V5" s="1">
+        <v>62</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-23</v>
+      </c>
+      <c r="X5" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>22661</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>958</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>8199</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>-148</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24614</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7607</v>
+      </c>
+      <c r="D6" s="1">
+        <v>149</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2631</v>
+      </c>
+      <c r="F6" s="1">
+        <v>703</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-187</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3810</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4183</v>
+      </c>
+      <c r="J6" s="1">
+        <v>160</v>
+      </c>
+      <c r="K6" s="1">
+        <v>506</v>
+      </c>
+      <c r="L6" s="1">
+        <v>250</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-268</v>
+      </c>
+      <c r="N6" s="1">
+        <v>598</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-117</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-1478.3589999999999</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>604</v>
+      </c>
+      <c r="R6" s="1">
+        <v>229</v>
+      </c>
+      <c r="S6" s="1">
+        <v>268</v>
+      </c>
+      <c r="T6" s="1">
+        <v>204</v>
+      </c>
+      <c r="U6" s="1">
+        <v>342</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>20</v>
+      </c>
+      <c r="X6" s="1">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>7390</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>534</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>8448</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>-207</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>-215</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1901</v>
+      </c>
+      <c r="B7" s="1">
+        <v>33299</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6435</v>
+      </c>
+      <c r="D7" s="1">
+        <v>256</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3332</v>
+      </c>
+      <c r="F7" s="1">
+        <v>544</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-144</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3376</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7264</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1178</v>
+      </c>
+      <c r="K7" s="1">
+        <v>103</v>
+      </c>
+      <c r="L7" s="1">
+        <v>373</v>
+      </c>
+      <c r="M7" s="1">
+        <v>89</v>
+      </c>
+      <c r="N7" s="1">
+        <v>236</v>
+      </c>
+      <c r="O7" s="1">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1">
+        <v>270</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>978</v>
+      </c>
+      <c r="R7" s="1">
+        <v>239</v>
+      </c>
+      <c r="S7" s="1">
+        <v>284</v>
+      </c>
+      <c r="T7" s="1">
+        <v>183</v>
+      </c>
+      <c r="U7" s="1">
+        <v>164</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-11</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-7</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>13206</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>23217</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>3584</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1622</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>-392</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>-1288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1902</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15722</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10945</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1230</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4136</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1052</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-93</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4431</v>
+      </c>
+      <c r="J8" s="1">
+        <v>439</v>
+      </c>
+      <c r="K8" s="1">
+        <v>485</v>
+      </c>
+      <c r="L8" s="1">
+        <v>191</v>
+      </c>
+      <c r="M8" s="1">
+        <v>62</v>
+      </c>
+      <c r="N8" s="1">
+        <v>213</v>
+      </c>
+      <c r="O8" s="1">
+        <v>198</v>
+      </c>
+      <c r="P8" s="1">
+        <v>333</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>942</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>367</v>
+      </c>
+      <c r="T8" s="1">
+        <v>166</v>
+      </c>
+      <c r="U8" s="1">
+        <v>131</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-19</v>
+      </c>
+      <c r="W8" s="1">
+        <v>85</v>
+      </c>
+      <c r="X8" s="1">
+        <v>-34</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-36</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>17852</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>26514</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>7913</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2264</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>-247</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>-1670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1903</v>
+      </c>
+      <c r="B9" s="1">
+        <v>21596</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7950</v>
+      </c>
+      <c r="D9" s="1">
+        <v>263</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2557</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1027</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-13</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2839</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3515</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-8</v>
+      </c>
+      <c r="K9" s="1">
+        <v>651</v>
+      </c>
+      <c r="L9" s="1">
+        <v>355</v>
+      </c>
+      <c r="M9" s="1">
+        <v>118</v>
+      </c>
+      <c r="N9" s="1">
+        <v>84</v>
+      </c>
+      <c r="O9" s="1">
+        <v>194</v>
+      </c>
+      <c r="P9" s="1">
+        <v>375</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>813</v>
+      </c>
+      <c r="R9" s="1">
+        <v>185</v>
+      </c>
+      <c r="S9" s="1">
+        <v>314</v>
+      </c>
+      <c r="T9" s="1">
+        <v>249</v>
+      </c>
+      <c r="U9" s="1">
+        <v>432</v>
+      </c>
+      <c r="V9" s="1">
+        <v>30</v>
+      </c>
+      <c r="W9" s="1">
+        <v>24</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-4</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>21426</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>4225</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>10102</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2079</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>-447</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1904</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10279</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17133</v>
+      </c>
+      <c r="D10" s="1">
+        <v>187</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-381</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2218</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-54</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3432</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-869</v>
+      </c>
+      <c r="J10" s="1">
+        <v>190</v>
+      </c>
+      <c r="K10" s="1">
+        <v>924</v>
+      </c>
+      <c r="L10" s="1">
+        <v>110</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-164</v>
+      </c>
+      <c r="N10" s="1">
+        <v>63</v>
+      </c>
+      <c r="O10" s="1">
+        <v>168</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-2563.6260000000002</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>402</v>
+      </c>
+      <c r="R10" s="1">
+        <v>60</v>
+      </c>
+      <c r="S10" s="1">
+        <v>333</v>
+      </c>
+      <c r="T10" s="1">
+        <v>53</v>
+      </c>
+      <c r="U10" s="1">
+        <v>370</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-85</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-55</v>
+      </c>
+      <c r="X10" s="1">
+        <v>-44</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>15108</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-369</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>9855</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>-459</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>-257</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>-2998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1905</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17045</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-20655</v>
+      </c>
+      <c r="D11" s="1">
+        <v>238</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2171</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2173</v>
+      </c>
+      <c r="G11" s="1">
+        <v>83</v>
+      </c>
+      <c r="H11" s="1">
+        <v>269</v>
+      </c>
+      <c r="I11" s="1">
+        <v>865</v>
+      </c>
+      <c r="J11" s="1">
+        <v>368</v>
+      </c>
+      <c r="K11" s="1">
+        <v>286</v>
+      </c>
+      <c r="L11" s="1">
+        <v>409</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-104</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-498</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-78</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-161</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>671</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-28</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-289</v>
+      </c>
+      <c r="U11" s="1">
+        <v>240</v>
+      </c>
+      <c r="V11" s="1">
+        <v>48</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-70</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-28</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>5417</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-2552</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3277</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>155</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>-61</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1906</v>
+      </c>
+      <c r="B12" s="1">
+        <v>32311</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-84553</v>
+      </c>
+      <c r="D12" s="1">
+        <v>358</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3286</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1582</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-49</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-16118</v>
+      </c>
+      <c r="J12" s="1">
+        <v>184</v>
+      </c>
+      <c r="K12" s="1">
+        <v>849</v>
+      </c>
+      <c r="L12" s="1">
+        <v>194</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-127</v>
+      </c>
+      <c r="N12" s="1">
+        <v>57</v>
+      </c>
+      <c r="O12" s="1">
+        <v>92</v>
+      </c>
+      <c r="P12" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1234</v>
+      </c>
+      <c r="R12" s="1">
+        <v>51</v>
+      </c>
+      <c r="S12" s="1">
+        <v>501</v>
+      </c>
+      <c r="T12" s="1">
+        <v>146</v>
+      </c>
+      <c r="U12" s="1">
+        <v>38</v>
+      </c>
+      <c r="V12" s="1">
+        <v>58</v>
+      </c>
+      <c r="W12" s="1">
+        <v>19</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>30837</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>14990</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>7674</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>4211</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>-444</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1907</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11690</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6485</v>
+      </c>
+      <c r="D13" s="1">
+        <v>286</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2321</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2109</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-112</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5908</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5420</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-37</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="1">
+        <v>553</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-67</v>
+      </c>
+      <c r="N13" s="1">
+        <v>614</v>
+      </c>
+      <c r="O13" s="1">
+        <v>230</v>
+      </c>
+      <c r="P13" s="1">
+        <v>214</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-13</v>
+      </c>
+      <c r="R13" s="1">
+        <v>89</v>
+      </c>
+      <c r="S13" s="1">
+        <v>714</v>
+      </c>
+      <c r="T13" s="1">
+        <v>140</v>
+      </c>
+      <c r="U13" s="1">
+        <v>289</v>
+      </c>
+      <c r="V13" s="1">
+        <v>83</v>
+      </c>
+      <c r="W13" s="1">
+        <v>149</v>
+      </c>
+      <c r="X13" s="1">
+        <v>-13</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>-25</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>13861</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>25594</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>14572</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1280</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>-415</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>9747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1908</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15585</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5350</v>
+      </c>
+      <c r="D14" s="1">
+        <v>333</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3376</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1927</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-82</v>
+      </c>
+      <c r="H14" s="1">
+        <v>7953</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4849</v>
+      </c>
+      <c r="J14" s="1">
+        <v>266</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2407</v>
+      </c>
+      <c r="L14" s="1">
+        <v>271</v>
+      </c>
+      <c r="M14" s="1">
+        <v>323</v>
+      </c>
+      <c r="N14" s="1">
+        <v>487</v>
+      </c>
+      <c r="O14" s="1">
+        <v>213</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-16</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>433</v>
+      </c>
+      <c r="R14" s="1">
+        <v>768</v>
+      </c>
+      <c r="S14" s="1">
+        <v>174</v>
+      </c>
+      <c r="T14" s="1">
+        <v>459</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-47</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-70</v>
+      </c>
+      <c r="W14" s="1">
+        <v>102</v>
+      </c>
+      <c r="X14" s="1">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-17</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>11241</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>11410</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>13278</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>170</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>-227</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>1909</v>
+      </c>
+      <c r="B15" s="1">
+        <v>29803</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1401</v>
+      </c>
+      <c r="D15" s="1">
+        <v>510</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2367</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1894</v>
+      </c>
+      <c r="G15" s="1">
+        <v>139</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4663</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4928</v>
+      </c>
+      <c r="J15" s="1">
+        <v>859</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1210</v>
+      </c>
+      <c r="L15" s="1">
+        <v>444</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-112</v>
+      </c>
+      <c r="N15" s="1">
+        <v>578</v>
+      </c>
+      <c r="O15" s="1">
+        <v>430</v>
+      </c>
+      <c r="P15" s="1">
+        <v>397</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>118</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1680</v>
+      </c>
+      <c r="S15" s="1">
+        <v>517</v>
+      </c>
+      <c r="T15" s="1">
+        <v>580</v>
+      </c>
+      <c r="U15" s="1">
+        <v>327</v>
+      </c>
+      <c r="V15" s="1">
+        <v>33</v>
+      </c>
+      <c r="W15" s="1">
+        <v>81</v>
+      </c>
+      <c r="X15" s="1">
+        <v>26</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>17832</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>14565</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>22675</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>916</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>131</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1910</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-39585</v>
+      </c>
+      <c r="C16" s="1">
+        <v>605</v>
+      </c>
+      <c r="D16" s="1">
+        <v>213</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7810</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3901</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6944</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7876</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5553</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1491</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3119</v>
+      </c>
+      <c r="L16" s="1">
+        <v>671</v>
+      </c>
+      <c r="M16" s="1">
+        <v>405</v>
+      </c>
+      <c r="N16" s="1">
+        <v>387</v>
+      </c>
+      <c r="O16" s="1">
+        <v>522</v>
+      </c>
+      <c r="P16" s="1">
+        <v>441</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1345</v>
+      </c>
+      <c r="R16" s="1">
+        <v>754</v>
+      </c>
+      <c r="S16" s="1">
+        <v>278</v>
+      </c>
+      <c r="T16" s="1">
+        <v>455</v>
+      </c>
+      <c r="U16" s="1">
+        <v>680</v>
+      </c>
+      <c r="V16" s="1">
+        <v>121</v>
+      </c>
+      <c r="W16" s="1">
+        <v>63</v>
+      </c>
+      <c r="X16" s="1">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>16596</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>15806</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>18263</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>-754</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>-475</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>4084.8649999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1911</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12028</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7159</v>
+      </c>
+      <c r="D17" s="1">
+        <v>471</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12861</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2810</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-128</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6205</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7308</v>
+      </c>
+      <c r="J17" s="1">
+        <v>885</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1388</v>
+      </c>
+      <c r="L17" s="1">
+        <v>301</v>
+      </c>
+      <c r="M17" s="1">
+        <v>393</v>
+      </c>
+      <c r="N17" s="1">
+        <v>632</v>
+      </c>
+      <c r="O17" s="1">
+        <v>844</v>
+      </c>
+      <c r="P17" s="1">
+        <v>312</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>394</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-193</v>
+      </c>
+      <c r="S17" s="1">
+        <v>556</v>
+      </c>
+      <c r="T17" s="1">
+        <v>831</v>
+      </c>
+      <c r="U17" s="1">
+        <v>577</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>73</v>
+      </c>
+      <c r="X17" s="1">
+        <v>35</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>-34</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>19694</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>-6520</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>23277</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1293</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>-519</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1912</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20173</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-964</v>
+      </c>
+      <c r="D18" s="1">
+        <v>522</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20969</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4555</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-892</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6568</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7293</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1428</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1654</v>
+      </c>
+      <c r="L18" s="1">
+        <v>281</v>
+      </c>
+      <c r="M18" s="1">
+        <v>264</v>
+      </c>
+      <c r="N18" s="1">
+        <v>255</v>
+      </c>
+      <c r="O18" s="1">
+        <v>675</v>
+      </c>
+      <c r="P18" s="1">
+        <v>125</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-3643</v>
+      </c>
+      <c r="R18" s="1">
+        <v>166</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-447</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1010</v>
+      </c>
+      <c r="U18" s="1">
+        <v>521</v>
+      </c>
+      <c r="V18" s="1">
+        <v>-171</v>
+      </c>
+      <c r="W18" s="1">
+        <v>11</v>
+      </c>
+      <c r="X18" s="1">
+        <v>-9</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>-130</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>28965</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>-48869.832000000002</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>7686</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1699</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1913</v>
+      </c>
+      <c r="B19" s="1">
+        <v>13917</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3194</v>
+      </c>
+      <c r="D19" s="1">
+        <v>306</v>
+      </c>
+      <c r="E19" s="1">
+        <v>24454</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43573</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5927</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6532</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7035</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2768</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2244</v>
+      </c>
+      <c r="L19" s="1">
+        <v>936</v>
+      </c>
+      <c r="M19" s="1">
+        <v>941</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1258</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1699</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-5212.3990000000003</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1792</v>
+      </c>
+      <c r="R19" s="1">
+        <v>214</v>
+      </c>
+      <c r="S19" s="1">
+        <v>263</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1330</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1094</v>
+      </c>
+      <c r="V19" s="1">
+        <v>17</v>
+      </c>
+      <c r="W19" s="1">
+        <v>116</v>
+      </c>
+      <c r="X19" s="1">
+        <v>45</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>250</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>36352</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>13152</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>16316</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>814</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>137</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>-239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1914</v>
+      </c>
+      <c r="B20" s="1">
+        <v>773</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4733</v>
+      </c>
+      <c r="D20" s="1">
+        <v>427</v>
+      </c>
+      <c r="E20" s="1">
+        <v>17764</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4132</v>
+      </c>
+      <c r="G20" s="1">
+        <v>957</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-323</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6049</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-1098</v>
+      </c>
+      <c r="K20" s="1">
+        <v>-28</v>
+      </c>
+      <c r="L20" s="1">
+        <v>889</v>
+      </c>
+      <c r="M20" s="1">
+        <v>-273</v>
+      </c>
+      <c r="N20" s="1">
+        <v>423</v>
+      </c>
+      <c r="O20" s="1">
+        <v>694</v>
+      </c>
+      <c r="P20" s="1">
+        <v>-331</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1577</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-3</v>
+      </c>
+      <c r="S20" s="1">
+        <v>865</v>
+      </c>
+      <c r="T20" s="1">
+        <v>557</v>
+      </c>
+      <c r="U20" s="1">
+        <v>791</v>
+      </c>
+      <c r="V20" s="1">
+        <v>-14</v>
+      </c>
+      <c r="W20" s="1">
+        <v>43</v>
+      </c>
+      <c r="X20" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>32894</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>19052</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>10755</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>300</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>34</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>-1287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1915</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>152</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11648</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9949</v>
+      </c>
+      <c r="G21" s="1">
+        <v>874</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-7327</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-1094</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-138</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-88</v>
+      </c>
+      <c r="L21" s="1">
+        <v>43</v>
+      </c>
+      <c r="M21" s="1">
+        <v>48</v>
+      </c>
+      <c r="N21" s="1">
+        <v>96</v>
+      </c>
+      <c r="O21" s="1">
+        <v>-4</v>
+      </c>
+      <c r="P21" s="1">
+        <v>-24</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>859</v>
+      </c>
+      <c r="R21" s="1">
+        <v>-182</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-442</v>
+      </c>
+      <c r="T21" s="1">
+        <v>23</v>
+      </c>
+      <c r="U21" s="1">
+        <v>340</v>
+      </c>
+      <c r="V21" s="1">
+        <v>34</v>
+      </c>
+      <c r="W21" s="1">
+        <v>10</v>
+      </c>
+      <c r="X21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>8849</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>26337</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>464</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1509</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>79</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>-2496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rtss-pre1917/src/main/resources/immigration.xlsx
+++ b/rtss-pre1917/src/main/resources/immigration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D4D1C-7172-49D2-8755-9733FCA2CD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40DB6E-6A07-4D4A-B5AD-C6C308EE1FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15765" yWindow="2415" windowWidth="25365" windowHeight="19110" activeTab="1" xr2:uid="{F5C0FC2C-9C7B-4145-981E-7BD1765E4EE3}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="2" xr2:uid="{F5C0FC2C-9C7B-4145-981E-7BD1765E4EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
   <si>
     <t>год</t>
   </si>
@@ -187,6 +187,18 @@
   <si>
     <t>др страны лб</t>
   </si>
+  <si>
+    <t xml:space="preserve">note: </t>
+  </si>
+  <si>
+    <t>Годоваая иммиграция в Россию из различных стран.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суффикс "лб" означает иммиграцию по легитимационным билетам, </t>
+  </si>
+  <si>
+    <t>отсутствие суффикса -- иммиграцию по паспортам.</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -255,6 +267,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7122,7 +7135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7873D5-0E5D-4C85-A503-F7801E4CF69A}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -9488,10 +9501,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B60D45-40A7-4AEF-8152-6E6E2D19E14F}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9530,97 +9543,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11543,7 +11556,28 @@
         <v>-2496</v>
       </c>
     </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rtss-pre1917/src/main/resources/immigration.xlsx
+++ b/rtss-pre1917/src/main/resources/immigration.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40DB6E-6A07-4D4A-B5AD-C6C308EE1FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA145B91-8426-4815-B6BD-060467A419A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="2" xr2:uid="{F5C0FC2C-9C7B-4145-981E-7BD1765E4EE3}"/>
+    <workbookView xWindow="69480" yWindow="3315" windowWidth="43200" windowHeight="16770" activeTab="2" xr2:uid="{F5C0FC2C-9C7B-4145-981E-7BD1765E4EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="note-1" sheetId="2" r:id="rId1"/>
     <sheet name="note-2" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -264,10 +269,10 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,44 +589,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE7EB44-DA37-426E-8733-CEB32776A88C}">
   <dimension ref="A1:BU97"/>
   <sheetViews>
-    <sheetView topLeftCell="AW19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:BU55"/>
+    <sheetView topLeftCell="AF17" workbookViewId="0">
+      <selection activeCell="BG35" sqref="BG35:BG54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -653,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1896</v>
       </c>
@@ -691,7 +696,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f>A7+1</f>
         <v>1897</v>
@@ -730,7 +735,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" ref="A9:A26" si="6">A8+1</f>
         <v>1898</v>
@@ -769,7 +774,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="6"/>
         <v>1899</v>
@@ -808,7 +813,7 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="6"/>
         <v>1900</v>
@@ -847,7 +852,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="6"/>
         <v>1901</v>
@@ -886,7 +891,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="6"/>
         <v>1902</v>
@@ -925,7 +930,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="6"/>
         <v>1903</v>
@@ -964,7 +969,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="6"/>
         <v>1904</v>
@@ -1003,7 +1008,7 @@
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="6"/>
         <v>1905</v>
@@ -1042,7 +1047,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="6"/>
         <v>1906</v>
@@ -1081,7 +1086,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="6"/>
         <v>1907</v>
@@ -1120,7 +1125,7 @@
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="6"/>
         <v>1908</v>
@@ -1159,7 +1164,7 @@
       </c>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="6"/>
         <v>1909</v>
@@ -1198,7 +1203,7 @@
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="6"/>
         <v>1910</v>
@@ -1237,7 +1242,7 @@
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f t="shared" si="6"/>
         <v>1911</v>
@@ -1276,7 +1281,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f t="shared" si="6"/>
         <v>1912</v>
@@ -1315,7 +1320,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f t="shared" si="6"/>
         <v>1913</v>
@@ -1354,7 +1359,7 @@
       </c>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f t="shared" si="6"/>
         <v>1914</v>
@@ -1393,7 +1398,7 @@
       </c>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f t="shared" si="6"/>
         <v>1915</v>
@@ -1432,7 +1437,7 @@
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1456,29 +1461,29 @@
       <c r="J27" s="4"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>19</v>
       </c>
       <c r="M31" s="6"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>1896</v>
       </c>
@@ -1942,10 +1947,10 @@
         <f>AY35-AZ35</f>
         <v>-44</v>
       </c>
-      <c r="AY35">
+      <c r="AY35" s="1">
         <v>114</v>
       </c>
-      <c r="AZ35">
+      <c r="AZ35" s="1">
         <v>158</v>
       </c>
       <c r="BA35" s="1">
@@ -1992,10 +1997,10 @@
         <f>BN35-BO35</f>
         <v>13</v>
       </c>
-      <c r="BN35">
+      <c r="BN35" s="1">
         <v>95</v>
       </c>
-      <c r="BO35">
+      <c r="BO35" s="1">
         <v>82</v>
       </c>
       <c r="BP35" s="1">
@@ -2015,11 +2020,11 @@
       <c r="BT35" s="1">
         <v>4907</v>
       </c>
-      <c r="BU35">
+      <c r="BU35" s="1">
         <v>805</v>
       </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <f>A35+1</f>
         <v>1897</v>
@@ -2188,10 +2193,10 @@
         <f t="shared" ref="AX36:AX54" si="23">AY36-AZ36</f>
         <v>40</v>
       </c>
-      <c r="AY36">
+      <c r="AY36" s="1">
         <v>146</v>
       </c>
-      <c r="AZ36">
+      <c r="AZ36" s="1">
         <v>106</v>
       </c>
       <c r="BA36" s="1">
@@ -2238,20 +2243,20 @@
         <f t="shared" ref="BM36:BM54" si="28">BN36-BO36</f>
         <v>16</v>
       </c>
-      <c r="BN36">
+      <c r="BN36" s="1">
         <v>53</v>
       </c>
-      <c r="BO36">
+      <c r="BO36" s="1">
         <v>37</v>
       </c>
       <c r="BP36" s="1">
         <f t="shared" ref="BP36:BP54" si="29">BQ36-BR36</f>
         <v>60</v>
       </c>
-      <c r="BQ36">
+      <c r="BQ36" s="1">
         <v>191</v>
       </c>
-      <c r="BR36">
+      <c r="BR36" s="1">
         <v>131</v>
       </c>
       <c r="BS36" s="1">
@@ -2261,11 +2266,11 @@
       <c r="BT36" s="1">
         <v>3770</v>
       </c>
-      <c r="BU36">
+      <c r="BU36" s="1">
         <v>548</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <f t="shared" ref="A37:A54" si="31">A36+1</f>
         <v>1898</v>
@@ -2434,10 +2439,10 @@
         <f t="shared" si="23"/>
         <v>-38</v>
       </c>
-      <c r="AY37">
+      <c r="AY37" s="1">
         <v>41</v>
       </c>
-      <c r="AZ37">
+      <c r="AZ37" s="1">
         <v>79</v>
       </c>
       <c r="BA37" s="1">
@@ -2484,20 +2489,20 @@
         <f t="shared" si="28"/>
         <v>64</v>
       </c>
-      <c r="BN37">
+      <c r="BN37" s="1">
         <v>111</v>
       </c>
-      <c r="BO37">
+      <c r="BO37" s="1">
         <v>47</v>
       </c>
       <c r="BP37" s="1">
         <f t="shared" si="29"/>
         <v>-14</v>
       </c>
-      <c r="BQ37">
+      <c r="BQ37" s="1">
         <v>111</v>
       </c>
-      <c r="BR37">
+      <c r="BR37" s="1">
         <v>125</v>
       </c>
       <c r="BS37" s="1">
@@ -2507,11 +2512,11 @@
       <c r="BT37" s="1">
         <v>4055</v>
       </c>
-      <c r="BU37">
+      <c r="BU37" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <f t="shared" si="31"/>
         <v>1899</v>
@@ -2680,10 +2685,10 @@
         <f t="shared" si="23"/>
         <v>11</v>
       </c>
-      <c r="AY38">
+      <c r="AY38" s="1">
         <v>32</v>
       </c>
-      <c r="AZ38">
+      <c r="AZ38" s="1">
         <v>21</v>
       </c>
       <c r="BA38" s="1">
@@ -2730,20 +2735,20 @@
         <f t="shared" si="28"/>
         <v>-4</v>
       </c>
-      <c r="BN38">
+      <c r="BN38" s="1">
         <v>75</v>
       </c>
-      <c r="BO38">
+      <c r="BO38" s="1">
         <v>79</v>
       </c>
       <c r="BP38" s="1">
         <f t="shared" si="29"/>
         <v>-148</v>
       </c>
-      <c r="BQ38">
+      <c r="BQ38" s="1">
         <v>315</v>
       </c>
-      <c r="BR38">
+      <c r="BR38" s="1">
         <v>463</v>
       </c>
       <c r="BS38" s="1">
@@ -2753,11 +2758,11 @@
       <c r="BT38" s="1">
         <v>2340</v>
       </c>
-      <c r="BU38">
+      <c r="BU38" s="1">
         <v>606</v>
       </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <f t="shared" si="31"/>
         <v>1900</v>
@@ -2844,10 +2849,10 @@
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="15"/>
-        <v>-1478.3589999999999</v>
-      </c>
-      <c r="AA39">
-        <v>1.641</v>
+        <v>161</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>1641</v>
       </c>
       <c r="AB39" s="1">
         <v>1480</v>
@@ -2926,10 +2931,10 @@
         <f t="shared" si="23"/>
         <v>27</v>
       </c>
-      <c r="AY39">
+      <c r="AY39" s="1">
         <v>36</v>
       </c>
-      <c r="AZ39">
+      <c r="AZ39" s="1">
         <v>9</v>
       </c>
       <c r="BA39" s="1">
@@ -2976,34 +2981,34 @@
         <f t="shared" si="28"/>
         <v>-207</v>
       </c>
-      <c r="BN39">
+      <c r="BN39" s="1">
         <v>531</v>
       </c>
-      <c r="BO39">
+      <c r="BO39" s="1">
         <v>738</v>
       </c>
       <c r="BP39" s="1">
         <f t="shared" si="29"/>
         <v>-215</v>
       </c>
-      <c r="BQ39">
+      <c r="BQ39" s="1">
         <v>247</v>
       </c>
-      <c r="BR39">
+      <c r="BR39" s="1">
         <v>462</v>
       </c>
       <c r="BS39" s="1">
         <f t="shared" si="30"/>
         <v>183</v>
       </c>
-      <c r="BT39">
+      <c r="BT39" s="1">
         <v>267</v>
       </c>
-      <c r="BU39">
+      <c r="BU39" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <f t="shared" si="31"/>
         <v>1901</v>
@@ -3172,10 +3177,10 @@
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="AY40">
+      <c r="AY40" s="1">
         <v>10</v>
       </c>
-      <c r="AZ40">
+      <c r="AZ40" s="1">
         <v>5</v>
       </c>
       <c r="BA40" s="1">
@@ -3232,7 +3237,7 @@
         <f t="shared" si="29"/>
         <v>-392</v>
       </c>
-      <c r="BQ40">
+      <c r="BQ40" s="1">
         <v>619</v>
       </c>
       <c r="BR40" s="1">
@@ -3249,7 +3254,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <f t="shared" si="31"/>
         <v>1902</v>
@@ -3418,10 +3423,10 @@
         <f t="shared" si="23"/>
         <v>-34</v>
       </c>
-      <c r="AY41">
+      <c r="AY41" s="1">
         <v>26</v>
       </c>
-      <c r="AZ41">
+      <c r="AZ41" s="1">
         <v>60</v>
       </c>
       <c r="BA41" s="1">
@@ -3471,17 +3476,17 @@
       <c r="BN41" s="1">
         <v>3248</v>
       </c>
-      <c r="BO41">
+      <c r="BO41" s="1">
         <v>984</v>
       </c>
       <c r="BP41" s="1">
         <f t="shared" si="29"/>
         <v>-247</v>
       </c>
-      <c r="BQ41">
+      <c r="BQ41" s="1">
         <v>733</v>
       </c>
-      <c r="BR41">
+      <c r="BR41" s="1">
         <v>980</v>
       </c>
       <c r="BS41" s="1">
@@ -3495,7 +3500,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <f t="shared" si="31"/>
         <v>1903</v>
@@ -3664,10 +3669,10 @@
         <f t="shared" si="23"/>
         <v>-4</v>
       </c>
-      <c r="AY42">
+      <c r="AY42" s="1">
         <v>71</v>
       </c>
-      <c r="AZ42">
+      <c r="AZ42" s="1">
         <v>75</v>
       </c>
       <c r="BA42" s="1">
@@ -3724,7 +3729,7 @@
         <f t="shared" si="29"/>
         <v>-447</v>
       </c>
-      <c r="BQ42">
+      <c r="BQ42" s="1">
         <v>576</v>
       </c>
       <c r="BR42" s="1">
@@ -3741,7 +3746,7 @@
         <v>5628</v>
       </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <f t="shared" si="31"/>
         <v>1904</v>
@@ -3828,10 +3833,10 @@
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="15"/>
-        <v>-2563.6260000000002</v>
-      </c>
-      <c r="AA43">
-        <v>2.3740000000000001</v>
+        <v>-192</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>2374</v>
       </c>
       <c r="AB43" s="1">
         <v>2566</v>
@@ -3910,10 +3915,10 @@
         <f t="shared" si="23"/>
         <v>-44</v>
       </c>
-      <c r="AY43">
+      <c r="AY43" s="1">
         <v>64</v>
       </c>
-      <c r="AZ43">
+      <c r="AZ43" s="1">
         <v>108</v>
       </c>
       <c r="BA43" s="1">
@@ -3960,17 +3965,17 @@
         <f t="shared" si="28"/>
         <v>-459</v>
       </c>
-      <c r="BN43">
+      <c r="BN43" s="1">
         <v>12</v>
       </c>
-      <c r="BO43">
+      <c r="BO43" s="1">
         <v>471</v>
       </c>
       <c r="BP43" s="1">
         <f t="shared" si="29"/>
         <v>-257</v>
       </c>
-      <c r="BQ43">
+      <c r="BQ43" s="1">
         <v>889</v>
       </c>
       <c r="BR43" s="1">
@@ -3987,7 +3992,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <f t="shared" si="31"/>
         <v>1905</v>
@@ -4156,10 +4161,10 @@
         <f t="shared" si="23"/>
         <v>-28</v>
       </c>
-      <c r="AY44">
+      <c r="AY44" s="1">
         <v>46</v>
       </c>
-      <c r="AZ44">
+      <c r="AZ44" s="1">
         <v>74</v>
       </c>
       <c r="BA44" s="1">
@@ -4206,34 +4211,34 @@
         <f t="shared" si="28"/>
         <v>155</v>
       </c>
-      <c r="BN44">
+      <c r="BN44" s="1">
         <v>210</v>
       </c>
-      <c r="BO44">
+      <c r="BO44" s="1">
         <v>55</v>
       </c>
       <c r="BP44" s="1">
         <f t="shared" si="29"/>
         <v>-61</v>
       </c>
-      <c r="BQ44">
+      <c r="BQ44" s="1">
         <v>784</v>
       </c>
-      <c r="BR44">
+      <c r="BR44" s="1">
         <v>845</v>
       </c>
       <c r="BS44" s="1">
         <f t="shared" si="30"/>
         <v>-97</v>
       </c>
-      <c r="BT44">
+      <c r="BT44" s="1">
         <v>233</v>
       </c>
-      <c r="BU44">
+      <c r="BU44" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <f t="shared" si="31"/>
         <v>1906</v>
@@ -4402,10 +4407,10 @@
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="AY45">
+      <c r="AY45" s="1">
         <v>153</v>
       </c>
-      <c r="AZ45">
+      <c r="AZ45" s="1">
         <v>149</v>
       </c>
       <c r="BA45" s="1">
@@ -4462,7 +4467,7 @@
         <f t="shared" si="29"/>
         <v>-444</v>
       </c>
-      <c r="BQ45">
+      <c r="BQ45" s="1">
         <v>589</v>
       </c>
       <c r="BR45" s="1">
@@ -4479,7 +4484,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <f t="shared" si="31"/>
         <v>1907</v>
@@ -4648,10 +4653,10 @@
         <f t="shared" si="23"/>
         <v>-13</v>
       </c>
-      <c r="AY46">
+      <c r="AY46" s="1">
         <v>191</v>
       </c>
-      <c r="AZ46">
+      <c r="AZ46" s="1">
         <v>204</v>
       </c>
       <c r="BA46" s="1">
@@ -4708,7 +4713,7 @@
         <f t="shared" si="29"/>
         <v>-415</v>
       </c>
-      <c r="BQ46">
+      <c r="BQ46" s="1">
         <v>952</v>
       </c>
       <c r="BR46" s="1">
@@ -4725,7 +4730,7 @@
         <v>5117</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <f t="shared" si="31"/>
         <v>1908</v>
@@ -4894,10 +4899,10 @@
         <f t="shared" si="23"/>
         <v>65</v>
       </c>
-      <c r="AY47">
+      <c r="AY47" s="1">
         <v>192</v>
       </c>
-      <c r="AZ47">
+      <c r="AZ47" s="1">
         <v>127</v>
       </c>
       <c r="BA47" s="1">
@@ -4971,7 +4976,7 @@
         <v>7035</v>
       </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <f t="shared" si="31"/>
         <v>1909</v>
@@ -5140,10 +5145,10 @@
         <f t="shared" si="23"/>
         <v>26</v>
       </c>
-      <c r="AY48">
+      <c r="AY48" s="1">
         <v>397</v>
       </c>
-      <c r="AZ48">
+      <c r="AZ48" s="1">
         <v>371</v>
       </c>
       <c r="BA48" s="1">
@@ -5217,7 +5222,7 @@
         <v>6910</v>
       </c>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <f t="shared" si="31"/>
         <v>1910</v>
@@ -5386,10 +5391,10 @@
         <f t="shared" si="23"/>
         <v>28</v>
       </c>
-      <c r="AY49">
+      <c r="AY49" s="1">
         <v>393</v>
       </c>
-      <c r="AZ49">
+      <c r="AZ49" s="1">
         <v>365</v>
       </c>
       <c r="BA49" s="1">
@@ -5454,16 +5459,16 @@
       </c>
       <c r="BS49" s="1">
         <f t="shared" si="30"/>
-        <v>4084.8649999999998</v>
+        <v>-46</v>
       </c>
       <c r="BT49" s="1">
         <v>4089</v>
       </c>
-      <c r="BU49">
-        <v>4.1349999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BU49" s="1">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <f t="shared" si="31"/>
         <v>1911</v>
@@ -5632,10 +5637,10 @@
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="AY50">
+      <c r="AY50" s="1">
         <v>358</v>
       </c>
-      <c r="AZ50">
+      <c r="AZ50" s="1">
         <v>323</v>
       </c>
       <c r="BA50" s="1">
@@ -5709,7 +5714,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <f t="shared" si="31"/>
         <v>1912</v>
@@ -5878,10 +5883,10 @@
         <f t="shared" si="23"/>
         <v>-9</v>
       </c>
-      <c r="AY51">
+      <c r="AY51" s="1">
         <v>341</v>
       </c>
-      <c r="AZ51">
+      <c r="AZ51" s="1">
         <v>350</v>
       </c>
       <c r="BA51" s="1">
@@ -5906,10 +5911,10 @@
       </c>
       <c r="BG51" s="1">
         <f t="shared" si="26"/>
-        <v>-48869.832000000002</v>
-      </c>
-      <c r="BH51">
-        <v>64.168000000000006</v>
+        <v>15234</v>
+      </c>
+      <c r="BH51" s="1">
+        <v>64168</v>
       </c>
       <c r="BI51" s="1">
         <v>48934</v>
@@ -5955,7 +5960,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <f t="shared" si="31"/>
         <v>1913</v>
@@ -6042,10 +6047,10 @@
       </c>
       <c r="Z52" s="1">
         <f t="shared" si="15"/>
-        <v>-5212.3990000000003</v>
-      </c>
-      <c r="AA52">
-        <v>5.601</v>
+        <v>383</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>5601</v>
       </c>
       <c r="AB52" s="1">
         <v>5218</v>
@@ -6124,10 +6129,10 @@
         <f t="shared" si="23"/>
         <v>45</v>
       </c>
-      <c r="AY52">
+      <c r="AY52" s="1">
         <v>393</v>
       </c>
-      <c r="AZ52">
+      <c r="AZ52" s="1">
         <v>348</v>
       </c>
       <c r="BA52" s="1">
@@ -6201,7 +6206,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <f t="shared" si="31"/>
         <v>1914</v>
@@ -6370,10 +6375,10 @@
         <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="AY53">
+      <c r="AY53" s="1">
         <v>141</v>
       </c>
-      <c r="AZ53">
+      <c r="AZ53" s="1">
         <v>134</v>
       </c>
       <c r="BA53" s="1">
@@ -6430,10 +6435,10 @@
         <f t="shared" si="29"/>
         <v>34</v>
       </c>
-      <c r="BQ53">
+      <c r="BQ53" s="1">
         <v>667</v>
       </c>
-      <c r="BR53">
+      <c r="BR53" s="1">
         <v>633</v>
       </c>
       <c r="BS53" s="1">
@@ -6447,7 +6452,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <f t="shared" si="31"/>
         <v>1915</v>
@@ -6536,10 +6541,10 @@
         <f t="shared" si="15"/>
         <v>-24</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="1">
         <v>509</v>
       </c>
-      <c r="AB54">
+      <c r="AB54" s="1">
         <v>533</v>
       </c>
       <c r="AC54" s="1">
@@ -6549,7 +6554,7 @@
       <c r="AD54" s="1">
         <v>1679</v>
       </c>
-      <c r="AE54">
+      <c r="AE54" s="1">
         <v>820</v>
       </c>
       <c r="AF54" s="1">
@@ -6616,10 +6621,10 @@
         <f t="shared" si="23"/>
         <v>-1</v>
       </c>
-      <c r="AY54">
+      <c r="AY54" s="1">
         <v>2</v>
       </c>
-      <c r="AZ54">
+      <c r="AZ54" s="1">
         <v>3</v>
       </c>
       <c r="BA54" s="1">
@@ -6676,10 +6681,10 @@
         <f t="shared" si="29"/>
         <v>79</v>
       </c>
-      <c r="BQ54">
+      <c r="BQ54" s="1">
         <v>542</v>
       </c>
-      <c r="BR54">
+      <c r="BR54" s="1">
         <v>463</v>
       </c>
       <c r="BS54" s="1">
@@ -6693,7 +6698,7 @@
         <v>6872</v>
       </c>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -6701,106 +6706,154 @@
         <f>SUM(B35:B54)</f>
         <v>64633</v>
       </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1">
         <f>SUM(E35:E54)</f>
         <v>70815</v>
       </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
       <c r="H55" s="1">
         <f>SUM(H35:H54)</f>
         <v>12542</v>
       </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1">
         <f>SUM(K35:K54)</f>
         <v>20477</v>
       </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
       <c r="N55" s="1">
         <f>SUM(N35:N54)</f>
         <v>8006</v>
       </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
       <c r="Q55" s="1">
         <f>SUM(Q35:Q54)</f>
         <v>3063</v>
       </c>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
       <c r="T55" s="1">
         <f>SUM(T35:T54)</f>
         <v>10431</v>
       </c>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
       <c r="W55" s="1">
         <f>SUM(W35:W54)</f>
         <v>5897</v>
       </c>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
       <c r="Z55" s="1">
         <f>SUM(Z35:Z54)</f>
-        <v>-5538.384</v>
-      </c>
+        <v>4068</v>
+      </c>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
       <c r="AC55" s="1">
         <f>SUM(AC35:AC54)</f>
         <v>9020</v>
       </c>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
       <c r="AF55" s="1">
         <f>SUM(AF35:AF54)</f>
         <v>4862</v>
       </c>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
       <c r="AI55" s="1">
         <f>SUM(AI35:AI54)</f>
         <v>5622</v>
       </c>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
       <c r="AL55" s="1">
         <f>SUM(AL35:AL54)</f>
         <v>6426</v>
       </c>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
       <c r="AO55" s="1">
         <f>SUM(AO35:AO54)</f>
         <v>8369</v>
       </c>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
       <c r="AR55" s="1">
         <f>SUM(AR35:AR54)</f>
         <v>542</v>
       </c>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
       <c r="AU55" s="1">
         <f>SUM(AU35:AU54)</f>
         <v>1009</v>
       </c>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
       <c r="AX55" s="1">
         <f>SUM(AX35:AX54)</f>
         <v>78</v>
       </c>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
       <c r="BA55" s="1">
         <f>SUM(BA35:BA54)</f>
         <v>309</v>
       </c>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
       <c r="BD55" s="1">
         <f>SUM(BD35:BD54)</f>
         <v>363961</v>
       </c>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
       <c r="BG55" s="1">
         <f>SUM(BG35:BG54)</f>
-        <v>138817.16800000001</v>
-      </c>
+        <v>202921</v>
+      </c>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
       <c r="BJ55" s="1">
         <f>SUM(BJ35:BJ54)</f>
         <v>205805</v>
       </c>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
       <c r="BM55" s="1">
         <f>SUM(BM35:BM54)</f>
         <v>16981</v>
       </c>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
       <c r="BP55" s="1">
         <f>SUM(BP35:BP54)</f>
         <v>-5491</v>
       </c>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
       <c r="BS55" s="1">
         <f>SUM(BS35:BS54)</f>
-        <v>24086.864999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:73" x14ac:dyDescent="0.25">
+        <v>19956</v>
+      </c>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+    </row>
+    <row r="56" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AS56" s="1"/>
       <c r="AT56" s="1"/>
       <c r="BK56" s="1"/>
       <c r="BL56" s="1"/>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -6809,11 +6862,11 @@
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
     </row>
-    <row r="58" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -6823,7 +6876,7 @@
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
     </row>
-    <row r="60" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -6833,17 +6886,17 @@
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="1">
-        <v>138817</v>
+        <v>202921</v>
       </c>
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
     </row>
-    <row r="62" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -6853,7 +6906,7 @@
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -6863,7 +6916,7 @@
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
     </row>
-    <row r="64" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -6873,7 +6926,7 @@
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -6883,7 +6936,7 @@
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -6893,7 +6946,7 @@
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -6903,7 +6956,7 @@
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -6913,7 +6966,7 @@
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -6923,7 +6976,7 @@
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -6933,7 +6986,7 @@
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -6943,7 +6996,7 @@
       <c r="BK71" s="1"/>
       <c r="BL71" s="1"/>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -6953,7 +7006,7 @@
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -6963,7 +7016,7 @@
       <c r="BK73" s="1"/>
       <c r="BL73" s="1"/>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -6973,77 +7026,77 @@
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B75" s="1">
-        <v>3063</v>
+        <v>4068</v>
       </c>
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B76" s="1">
-        <v>1009</v>
+        <v>3063</v>
       </c>
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
     </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77">
-        <v>542</v>
+        <v>34</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1009</v>
       </c>
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B78">
-        <v>309</v>
+        <v>542</v>
       </c>
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B79">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="1">
-        <v>-5491</v>
+        <v>35</v>
+      </c>
+      <c r="B80">
+        <v>78</v>
       </c>
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
     </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B81" s="1">
-        <v>-5538</v>
+        <v>-5491</v>
       </c>
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
     </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -7053,70 +7106,70 @@
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
     </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>42</v>
       </c>
       <c r="B83" s="1">
         <f>SUM(B59:B81)</f>
-        <v>946636</v>
+        <v>1020346</v>
       </c>
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
     </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK84" s="1"/>
       <c r="BL84" s="1"/>
     </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
     </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK86" s="1"/>
       <c r="BL86" s="1"/>
     </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK87" s="1"/>
       <c r="BL87" s="1"/>
     </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK88" s="1"/>
       <c r="BL88" s="1"/>
     </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK89" s="1"/>
       <c r="BL89" s="1"/>
     </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK90" s="1"/>
       <c r="BL90" s="1"/>
     </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK91" s="1"/>
       <c r="BL91" s="1"/>
     </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK92" s="1"/>
       <c r="BL92" s="1"/>
     </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK93" s="1"/>
       <c r="BL93" s="1"/>
     </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK94" s="1"/>
       <c r="BL94" s="1"/>
     </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK95" s="1"/>
       <c r="BL95" s="1"/>
     </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK96" s="1"/>
       <c r="BL96" s="1"/>
     </row>
-    <row r="97" spans="63:64" x14ac:dyDescent="0.25">
+    <row r="97" spans="63:64" x14ac:dyDescent="0.55000000000000004">
       <c r="BK97" s="1"/>
       <c r="BL97" s="1"/>
     </row>
@@ -7135,55 +7188,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7873D5-0E5D-4C85-A503-F7801E4CF69A}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -7216,7 +7269,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1896</v>
       </c>
@@ -7254,7 +7307,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f>A9+1</f>
         <v>1897</v>
@@ -7293,7 +7346,7 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" ref="A11:A28" si="6">A10+1</f>
         <v>1898</v>
@@ -7332,7 +7385,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="6"/>
         <v>1899</v>
@@ -7371,7 +7424,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="6"/>
         <v>1900</v>
@@ -7410,7 +7463,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="6"/>
         <v>1901</v>
@@ -7449,7 +7502,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="6"/>
         <v>1902</v>
@@ -7488,7 +7541,7 @@
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="6"/>
         <v>1903</v>
@@ -7527,7 +7580,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="6"/>
         <v>1904</v>
@@ -7566,7 +7619,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="6"/>
         <v>1905</v>
@@ -7605,7 +7658,7 @@
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="6"/>
         <v>1906</v>
@@ -7644,7 +7697,7 @@
       </c>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="6"/>
         <v>1907</v>
@@ -7683,7 +7736,7 @@
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="6"/>
         <v>1908</v>
@@ -7722,7 +7775,7 @@
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f t="shared" si="6"/>
         <v>1909</v>
@@ -7761,7 +7814,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f t="shared" si="6"/>
         <v>1910</v>
@@ -7800,7 +7853,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f t="shared" si="6"/>
         <v>1911</v>
@@ -7839,7 +7892,7 @@
       </c>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f t="shared" si="6"/>
         <v>1912</v>
@@ -7878,7 +7931,7 @@
       </c>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f t="shared" si="6"/>
         <v>1913</v>
@@ -7917,7 +7970,7 @@
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f t="shared" si="6"/>
         <v>1914</v>
@@ -7956,7 +8009,7 @@
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <f t="shared" si="6"/>
         <v>1915</v>
@@ -7995,7 +8048,7 @@
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -8019,52 +8072,52 @@
       <c r="J29" s="4"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8" t="s">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8" t="s">
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -8123,7 +8176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>1896</v>
       </c>
@@ -8188,7 +8241,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <f>A35+1</f>
         <v>1897</v>
@@ -8254,7 +8307,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <f t="shared" ref="A37:A54" si="13">A36+1</f>
         <v>1898</v>
@@ -8320,7 +8373,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <f t="shared" si="13"/>
         <v>1899</v>
@@ -8386,7 +8439,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <f t="shared" si="13"/>
         <v>1900</v>
@@ -8452,7 +8505,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <f t="shared" si="13"/>
         <v>1901</v>
@@ -8518,7 +8571,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <f t="shared" si="13"/>
         <v>1902</v>
@@ -8584,7 +8637,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <f t="shared" si="13"/>
         <v>1903</v>
@@ -8650,7 +8703,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>1904</v>
@@ -8716,7 +8769,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>1905</v>
@@ -8782,7 +8835,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>1906</v>
@@ -8848,7 +8901,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>1907</v>
@@ -8914,7 +8967,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>1908</v>
@@ -8980,7 +9033,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <f t="shared" si="13"/>
         <v>1909</v>
@@ -9046,7 +9099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <f t="shared" si="13"/>
         <v>1910</v>
@@ -9112,7 +9165,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <f t="shared" si="13"/>
         <v>1911</v>
@@ -9178,7 +9231,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <f t="shared" si="13"/>
         <v>1912</v>
@@ -9244,7 +9297,7 @@
         <v>11687</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <f t="shared" si="13"/>
         <v>1913</v>
@@ -9310,7 +9363,7 @@
         <v>27718</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <f t="shared" si="13"/>
         <v>1914</v>
@@ -9376,7 +9429,7 @@
         <v>6799</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <f t="shared" si="13"/>
         <v>1915</v>
@@ -9440,7 +9493,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -9504,140 +9557,140 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26171875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1896</v>
       </c>
@@ -9732,7 +9785,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>A2+1</f>
         <v>1897</v>
@@ -9828,7 +9881,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="0">A3+1</f>
         <v>1898</v>
@@ -9924,7 +9977,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1899</v>
@@ -10020,7 +10073,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1900</v>
@@ -10068,7 +10121,7 @@
         <v>-117</v>
       </c>
       <c r="P6" s="1">
-        <v>-1478.3589999999999</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="1">
         <v>604</v>
@@ -10116,7 +10169,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1901</v>
@@ -10212,7 +10265,7 @@
         <v>-1288</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1902</v>
@@ -10308,7 +10361,7 @@
         <v>-1670</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1903</v>
@@ -10404,7 +10457,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1904</v>
@@ -10452,7 +10505,7 @@
         <v>168</v>
       </c>
       <c r="P10" s="1">
-        <v>-2563.6260000000002</v>
+        <v>-192</v>
       </c>
       <c r="Q10" s="1">
         <v>402</v>
@@ -10500,7 +10553,7 @@
         <v>-2998</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1905</v>
@@ -10596,7 +10649,7 @@
         <v>-97</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1906</v>
@@ -10692,7 +10745,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1907</v>
@@ -10788,7 +10841,7 @@
         <v>9747</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1908</v>
@@ -10884,7 +10937,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1909</v>
@@ -10980,7 +11033,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1910</v>
@@ -11073,10 +11126,10 @@
         <v>-475</v>
       </c>
       <c r="AE16" s="1">
-        <v>4084.8649999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1911</v>
@@ -11172,7 +11225,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1912</v>
@@ -11253,7 +11306,7 @@
         <v>28965</v>
       </c>
       <c r="AA18" s="1">
-        <v>-48869.832000000002</v>
+        <v>15234</v>
       </c>
       <c r="AB18" s="1">
         <v>7686</v>
@@ -11268,7 +11321,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1913</v>
@@ -11316,7 +11369,7 @@
         <v>1699</v>
       </c>
       <c r="P19" s="1">
-        <v>-5212.3990000000003</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="1">
         <v>1792</v>
@@ -11364,7 +11417,7 @@
         <v>-239</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1914</v>
@@ -11460,7 +11513,7 @@
         <v>-1287</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1915</v>
@@ -11556,22 +11609,23 @@
         <v>-2496</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>54</v>
       </c>
